--- a/target/DatosExcel/DatosReprogramacionCreditoEmpresarial.xlsx
+++ b/target/DatosExcel/DatosReprogramacionCreditoEmpresarial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIO_NUEVO\CajaPiuraCMAC2021\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CajaPiuraCMAC2021\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Cliente</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Modalidad Amortizacion</t>
   </si>
   <si>
-    <t># Cuotas</t>
-  </si>
-  <si>
     <t>Fija Vencida</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>23129299</t>
-  </si>
-  <si>
     <t>CREDITOS PYMES</t>
   </si>
   <si>
@@ -95,13 +89,55 @@
     <t>10</t>
   </si>
   <si>
-    <t>26/11/2021</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>Número Propuesta</t>
+  </si>
+  <si>
+    <t>Tipo Operación</t>
+  </si>
+  <si>
+    <t>Pagaré</t>
+  </si>
+  <si>
+    <t>SIMPLE</t>
+  </si>
+  <si>
+    <t>Cambio de Tasa</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>3/12/2021</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observación </t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Número cuotas</t>
+  </si>
+  <si>
+    <t>12218095</t>
+  </si>
+  <si>
+    <t>080-01-9973061</t>
   </si>
 </sst>
 </file>
@@ -446,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -459,16 +495,23 @@
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
+    <row r="1" spans="1:20" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -485,70 +528,107 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/DatosExcel/DatosReprogramacionCreditoEmpresarial.xlsx
+++ b/target/DatosExcel/DatosReprogramacionCreditoEmpresarial.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CajaPiuraCMAC2021\target\DatosExcel\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Cliente</t>
   </si>
@@ -134,16 +134,20 @@
     <t>Número cuotas</t>
   </si>
   <si>
-    <t>12218095</t>
-  </si>
-  <si>
-    <t>080-01-9973061</t>
+    <t>24681769</t>
+  </si>
+  <si>
+    <t>080-01-9053891</t>
+  </si>
+  <si>
+    <t>4873680</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -484,31 +488,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.140625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.85546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="23.85546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="13.85546875" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1">
@@ -628,7 +632,9 @@
       <c r="R2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2"/>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/DatosExcel/DatosReprogramacionCreditoEmpresarial.xlsx
+++ b/target/DatosExcel/DatosReprogramacionCreditoEmpresarial.xlsx
@@ -140,7 +140,7 @@
     <t>080-01-9053891</t>
   </si>
   <si>
-    <t>4873680</t>
+    <t>4873699</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
